--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H2">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2333953333333333</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N2">
-        <v>0.700186</v>
+        <v>0.562441</v>
       </c>
       <c r="O2">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P2">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q2">
-        <v>4.489214920552222</v>
+        <v>3.002311370362334</v>
       </c>
       <c r="R2">
-        <v>40.40293428497</v>
+        <v>27.020802333261</v>
       </c>
       <c r="S2">
-        <v>0.007213870474244847</v>
+        <v>0.005085448458615619</v>
       </c>
       <c r="T2">
-        <v>0.007213870474244848</v>
+        <v>0.005085448458615618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H3">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.565113</v>
       </c>
       <c r="O3">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P3">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q3">
-        <v>54.91488415337611</v>
+        <v>45.72059317926367</v>
       </c>
       <c r="R3">
-        <v>494.233957380385</v>
+        <v>411.4853386133731</v>
       </c>
       <c r="S3">
-        <v>0.08824457469768134</v>
+        <v>0.0774435731102793</v>
       </c>
       <c r="T3">
-        <v>0.08824457469768135</v>
+        <v>0.0774435731102793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H4">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.347169</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N4">
-        <v>1.041507</v>
+        <v>0.039526</v>
       </c>
       <c r="O4">
-        <v>0.1010504127078748</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P4">
-        <v>0.1010504127078748</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q4">
-        <v>6.677581048835</v>
+        <v>0.2109898802273334</v>
       </c>
       <c r="R4">
-        <v>60.098229439515</v>
+        <v>1.898908922046</v>
       </c>
       <c r="S4">
-        <v>0.0107304296230135</v>
+        <v>0.0003573840381039806</v>
       </c>
       <c r="T4">
-        <v>0.0107304296230135</v>
+        <v>0.0003573840381039806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.9328183333333</v>
+        <v>16.014007</v>
       </c>
       <c r="H5">
-        <v>305.798455</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I5">
-        <v>0.5627491161960234</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J5">
-        <v>0.5627491161960235</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2333953333333333</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N5">
-        <v>0.700186</v>
+        <v>1.184095</v>
       </c>
       <c r="O5">
-        <v>0.0679343338760815</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P5">
-        <v>0.0679343338760815</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q5">
-        <v>23.79064411251444</v>
+        <v>6.320701872888335</v>
       </c>
       <c r="R5">
-        <v>214.11579701263</v>
+        <v>56.886316855995</v>
       </c>
       <c r="S5">
-        <v>0.03822998634813043</v>
+        <v>0.01070628580171869</v>
       </c>
       <c r="T5">
-        <v>0.03822998634813044</v>
+        <v>0.01070628580171869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>305.798455</v>
       </c>
       <c r="I6">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J6">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.855037666666667</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N6">
-        <v>8.565113</v>
+        <v>0.562441</v>
       </c>
       <c r="O6">
-        <v>0.8310152534160438</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P6">
-        <v>0.8310152534160438</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q6">
-        <v>291.0220358111572</v>
+        <v>19.11039875873944</v>
       </c>
       <c r="R6">
-        <v>2619.198322300415</v>
+        <v>171.993588828655</v>
       </c>
       <c r="S6">
-        <v>0.467653099405293</v>
+        <v>0.0323700429177779</v>
       </c>
       <c r="T6">
-        <v>0.4676530994052931</v>
+        <v>0.0323700429177779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J7">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.347169</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N7">
-        <v>1.041507</v>
+        <v>8.565113</v>
       </c>
       <c r="O7">
-        <v>0.1010504127078748</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P7">
-        <v>0.1010504127078748</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q7">
-        <v>35.387914607965</v>
+        <v>291.0220358111572</v>
       </c>
       <c r="R7">
-        <v>318.491231471685</v>
+        <v>2619.198322300415</v>
       </c>
       <c r="S7">
-        <v>0.05686603044259995</v>
+        <v>0.492946060841257</v>
       </c>
       <c r="T7">
-        <v>0.05686603044259995</v>
+        <v>0.4929460608412571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.990832</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H8">
-        <v>101.972496</v>
+        <v>305.798455</v>
       </c>
       <c r="I8">
-        <v>0.1876560560134372</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J8">
-        <v>0.1876560560134372</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2333953333333333</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N8">
-        <v>0.700186</v>
+        <v>0.039526</v>
       </c>
       <c r="O8">
-        <v>0.0679343338760815</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P8">
-        <v>0.0679343338760815</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q8">
-        <v>7.933301564917334</v>
+        <v>1.342998859147778</v>
       </c>
       <c r="R8">
-        <v>71.399714084256</v>
+        <v>12.08698973233</v>
       </c>
       <c r="S8">
-        <v>0.01274828916308549</v>
+        <v>0.002274831166945669</v>
       </c>
       <c r="T8">
-        <v>0.01274828916308549</v>
+        <v>0.00227483116694567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.990832</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H9">
-        <v>101.972496</v>
+        <v>305.798455</v>
       </c>
       <c r="I9">
-        <v>0.1876560560134372</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J9">
-        <v>0.1876560560134372</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.855037666666667</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N9">
-        <v>8.565113</v>
+        <v>1.184095</v>
       </c>
       <c r="O9">
-        <v>0.8310152534160438</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P9">
-        <v>0.8310152534160438</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q9">
-        <v>97.04510568133868</v>
+        <v>40.23271350813611</v>
       </c>
       <c r="R9">
-        <v>873.4059511320481</v>
+        <v>362.094421573225</v>
       </c>
       <c r="S9">
-        <v>0.1559450449430618</v>
+        <v>0.06814795857472379</v>
       </c>
       <c r="T9">
-        <v>0.1559450449430618</v>
+        <v>0.06814795857472379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H10">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I10">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J10">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.347169</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N10">
-        <v>1.041507</v>
+        <v>0.562441</v>
       </c>
       <c r="O10">
-        <v>0.1010504127078748</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P10">
-        <v>0.1010504127078748</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q10">
-        <v>11.800563154608</v>
+        <v>3.624356930350444</v>
       </c>
       <c r="R10">
-        <v>106.205068391472</v>
+        <v>32.619212373154</v>
       </c>
       <c r="S10">
-        <v>0.01896272190728989</v>
+        <v>0.006139096879448283</v>
       </c>
       <c r="T10">
-        <v>0.01896272190728989</v>
+        <v>0.006139096879448283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.103486</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H11">
-        <v>3.310458</v>
+        <v>57.995794</v>
       </c>
       <c r="I11">
-        <v>0.006092108325740414</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J11">
-        <v>0.006092108325740415</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2333953333333333</v>
+        <v>2.855037666666667</v>
       </c>
       <c r="N11">
-        <v>0.700186</v>
+        <v>8.565113</v>
       </c>
       <c r="O11">
-        <v>0.0679343338760815</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P11">
-        <v>0.0679343338760815</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q11">
-        <v>0.2575484827986667</v>
+        <v>55.19339212608022</v>
       </c>
       <c r="R11">
-        <v>2.317936345188</v>
+        <v>496.740529134722</v>
       </c>
       <c r="S11">
-        <v>0.0004138633210101052</v>
+        <v>0.09348902105362504</v>
       </c>
       <c r="T11">
-        <v>0.0004138633210101052</v>
+        <v>0.09348902105362504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.103486</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H12">
-        <v>3.310458</v>
+        <v>57.995794</v>
       </c>
       <c r="I12">
-        <v>0.006092108325740414</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J12">
-        <v>0.006092108325740415</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.855037666666667</v>
+        <v>0.01317533333333333</v>
       </c>
       <c r="N12">
-        <v>8.565113</v>
+        <v>0.039526</v>
       </c>
       <c r="O12">
-        <v>0.8310152534160438</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="P12">
-        <v>0.8310152534160438</v>
+        <v>0.003818503696440259</v>
       </c>
       <c r="Q12">
-        <v>3.150494094639333</v>
+        <v>0.2547046392937777</v>
       </c>
       <c r="R12">
-        <v>28.354446851754</v>
+        <v>2.292341753644</v>
       </c>
       <c r="S12">
-        <v>0.005062634944153161</v>
+        <v>0.000431430040230127</v>
       </c>
       <c r="T12">
-        <v>0.005062634944153161</v>
+        <v>0.000431430040230127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.103486</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H13">
-        <v>3.310458</v>
+        <v>57.995794</v>
       </c>
       <c r="I13">
-        <v>0.006092108325740414</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J13">
-        <v>0.006092108325740415</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.347169</v>
+        <v>0.3946983333333333</v>
       </c>
       <c r="N13">
-        <v>1.041507</v>
+        <v>1.184095</v>
       </c>
       <c r="O13">
-        <v>0.1010504127078748</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="P13">
-        <v>0.1010504127078748</v>
+        <v>0.1143923274410876</v>
       </c>
       <c r="Q13">
-        <v>0.383096131134</v>
+        <v>7.63028107738111</v>
       </c>
       <c r="R13">
-        <v>3.447865180206</v>
+        <v>68.67252969642999</v>
       </c>
       <c r="S13">
-        <v>0.0006156100605771489</v>
+        <v>0.01292450927203087</v>
       </c>
       <c r="T13">
-        <v>0.000615610060577149</v>
+        <v>0.01292450927203087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.872162</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H14">
-        <v>74.61648600000001</v>
+        <v>2.062734</v>
       </c>
       <c r="I14">
-        <v>0.1373138446698593</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J14">
-        <v>0.1373138446698593</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2333953333333333</v>
+        <v>0.1874803333333333</v>
       </c>
       <c r="N14">
-        <v>0.700186</v>
+        <v>0.562441</v>
       </c>
       <c r="O14">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903294</v>
       </c>
       <c r="P14">
-        <v>0.0679343338760815</v>
+        <v>0.05433595702903293</v>
       </c>
       <c r="Q14">
-        <v>5.805046540710667</v>
+        <v>0.1289073526326666</v>
       </c>
       <c r="R14">
-        <v>52.245418866396</v>
+        <v>1.160166173694</v>
       </c>
       <c r="S14">
-        <v>0.009328324569610618</v>
+        <v>0.000218349004111089</v>
       </c>
       <c r="T14">
-        <v>0.009328324569610618</v>
+        <v>0.0002183490041110891</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.872162</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H15">
-        <v>74.61648600000001</v>
+        <v>2.062734</v>
       </c>
       <c r="I15">
-        <v>0.1373138446698593</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J15">
-        <v>0.1373138446698593</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,84 +1370,394 @@
         <v>8.565113</v>
       </c>
       <c r="O15">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="P15">
-        <v>0.8310152534160438</v>
+        <v>0.8274532118334392</v>
       </c>
       <c r="Q15">
-        <v>71.01095936143534</v>
+        <v>1.963061088771333</v>
       </c>
       <c r="R15">
-        <v>639.0986342529181</v>
+        <v>17.667549798942</v>
       </c>
       <c r="S15">
-        <v>0.1141098994258544</v>
+        <v>0.003325120134643353</v>
       </c>
       <c r="T15">
-        <v>0.1141098994258544</v>
+        <v>0.003325120134643354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6875779999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.062734</v>
+      </c>
+      <c r="I16">
+        <v>0.004018499278376935</v>
+      </c>
+      <c r="J16">
+        <v>0.004018499278376936</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.039526</v>
+      </c>
+      <c r="O16">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="P16">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="Q16">
+        <v>0.009059069342666665</v>
+      </c>
+      <c r="R16">
+        <v>0.08153162408399998</v>
+      </c>
+      <c r="S16">
+        <v>1.534465434862484E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.534465434862485E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6875779999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.062734</v>
+      </c>
+      <c r="I17">
+        <v>0.004018499278376935</v>
+      </c>
+      <c r="J17">
+        <v>0.004018499278376936</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3946983333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.184095</v>
+      </c>
+      <c r="O17">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="P17">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="Q17">
+        <v>0.2713858906366666</v>
+      </c>
+      <c r="R17">
+        <v>2.44247301573</v>
+      </c>
+      <c r="S17">
+        <v>0.0004596854852738687</v>
+      </c>
+      <c r="T17">
+        <v>0.0004596854852738687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>33.136844</v>
+      </c>
+      <c r="H18">
+        <v>99.410532</v>
+      </c>
+      <c r="I18">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="J18">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1874803333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.562441</v>
+      </c>
+      <c r="O18">
+        <v>0.05433595702903294</v>
+      </c>
+      <c r="P18">
+        <v>0.05433595702903293</v>
+      </c>
+      <c r="Q18">
+        <v>6.212506558734668</v>
+      </c>
+      <c r="R18">
+        <v>55.912559028612</v>
+      </c>
+      <c r="S18">
+        <v>0.01052301976908004</v>
+      </c>
+      <c r="T18">
+        <v>0.01052301976908004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>33.136844</v>
+      </c>
+      <c r="H19">
+        <v>99.410532</v>
+      </c>
+      <c r="I19">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="J19">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.855037666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.565113</v>
+      </c>
+      <c r="O19">
+        <v>0.8274532118334392</v>
+      </c>
+      <c r="P19">
+        <v>0.8274532118334392</v>
+      </c>
+      <c r="Q19">
+        <v>94.60693777445734</v>
+      </c>
+      <c r="R19">
+        <v>851.4624399701161</v>
+      </c>
+      <c r="S19">
+        <v>0.1602494366936345</v>
+      </c>
+      <c r="T19">
+        <v>0.1602494366936345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>33.136844</v>
+      </c>
+      <c r="H20">
+        <v>99.410532</v>
+      </c>
+      <c r="I20">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="J20">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01317533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.039526</v>
+      </c>
+      <c r="O20">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="P20">
+        <v>0.003818503696440259</v>
+      </c>
+      <c r="Q20">
+        <v>0.4365889653146667</v>
+      </c>
+      <c r="R20">
+        <v>3.929300687832</v>
+      </c>
+      <c r="S20">
+        <v>0.0007395137968118572</v>
+      </c>
+      <c r="T20">
+        <v>0.0007395137968118572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.872162</v>
-      </c>
-      <c r="H16">
-        <v>74.61648600000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1373138446698593</v>
-      </c>
-      <c r="J16">
-        <v>0.1373138446698593</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.347169</v>
-      </c>
-      <c r="N16">
-        <v>1.041507</v>
-      </c>
-      <c r="O16">
-        <v>0.1010504127078748</v>
-      </c>
-      <c r="P16">
-        <v>0.1010504127078748</v>
-      </c>
-      <c r="Q16">
-        <v>8.634843609378001</v>
-      </c>
-      <c r="R16">
-        <v>77.713592484402</v>
-      </c>
-      <c r="S16">
-        <v>0.0138756206743943</v>
-      </c>
-      <c r="T16">
-        <v>0.0138756206743943</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33.136844</v>
+      </c>
+      <c r="H21">
+        <v>99.410532</v>
+      </c>
+      <c r="I21">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="J21">
+        <v>0.1936658585668668</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3946983333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.184095</v>
+      </c>
+      <c r="O21">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="P21">
+        <v>0.1143923274410876</v>
+      </c>
+      <c r="Q21">
+        <v>13.07905709872667</v>
+      </c>
+      <c r="R21">
+        <v>117.71151388854</v>
+      </c>
+      <c r="S21">
+        <v>0.02215388830734039</v>
+      </c>
+      <c r="T21">
+        <v>0.02215388830734038</v>
       </c>
     </row>
   </sheetData>
